--- a/data/scheduling_DNN/predict/0.5/result11.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result11.xlsx
@@ -570,10 +570,10 @@
         <v>0.9172019958496094</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.5088599920272827</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2641783654689789</v>
+        <v>0.1667431890964508</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9670209884643555</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.4948453009128571</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0727587565779686</v>
+        <v>0.2229498773813248</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8966019153594971</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.89871746301651</v>
       </c>
       <c r="W4" t="n">
-        <v>0.131160706281662</v>
+        <v>4.475542027648771e-06</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8711698055267334</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.5137616991996765</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2415566295385361</v>
+        <v>0.1277405470609665</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.9296860694885254</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.4971104860305786</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2042018473148346</v>
+        <v>0.1871216297149658</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8801348209381104</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.4235432744026184</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1408551335334778</v>
+        <v>0.2084758430719376</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8663709163665771</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.5136896371841431</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002096971264109015</v>
+        <v>0.1243840828537941</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8708961009979248</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.874650776386261</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1765665858983994</v>
+        <v>1.409758715453791e-05</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.9301478862762451</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.8667240738868713</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3012721836566925</v>
+        <v>0.004022580105811357</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8730678558349609</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.8679783344268799</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1368118524551392</v>
+        <v>2.590322765172459e-05</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.868628978729248</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.5128408670425415</v>
       </c>
       <c r="W12" t="n">
-        <v>0.005448318086564541</v>
+        <v>0.1265851855278015</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8967218399047852</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.4959605038166046</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04587465152144432</v>
+        <v>0.1606096476316452</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.922321081161499</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.4101302921772003</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1308464258909225</v>
+        <v>0.2623394429683685</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9125919342041016</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.402923583984375</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3156459033489227</v>
+        <v>0.2597618401050568</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8625750541687012</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.4874312877655029</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07508308440446854</v>
+        <v>0.1407328397035599</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8775389194488525</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.4029266238212585</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04959868639707565</v>
+        <v>0.2252568304538727</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8997399806976318</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.898672878742218</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2750283777713776</v>
+        <v>1.138706579695281e-06</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8566570281982422</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.4011401534080505</v>
       </c>
       <c r="W19" t="n">
-        <v>0.005467640701681376</v>
+        <v>0.2074956297874451</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8679940700531006</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.8619697690010071</v>
       </c>
       <c r="W20" t="n">
-        <v>0.003855261718854308</v>
+        <v>3.62922037311364e-05</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8837270736694336</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.4038063287734985</v>
       </c>
       <c r="W21" t="n">
-        <v>0.230450838804245</v>
+        <v>0.230323925614357</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5455570220947266</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.8580326437950134</v>
       </c>
       <c r="W22" t="n">
-        <v>0.001708137686364353</v>
+        <v>0.09764101356267929</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5368430614471436</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.8745105266571045</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0768207311630249</v>
+        <v>0.1140193194150925</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5217809677124023</v>
       </c>
       <c r="V24" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.4022830724716187</v>
       </c>
       <c r="W24" t="n">
-        <v>0.06879936158657074</v>
+        <v>0.01427974738180637</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5438570976257324</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.3974599242210388</v>
       </c>
       <c r="W25" t="n">
-        <v>9.188523108605295e-05</v>
+        <v>0.02143213152885437</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.541485071182251</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.4037133455276489</v>
       </c>
       <c r="W26" t="n">
-        <v>0.03636754676699638</v>
+        <v>0.01898104883730412</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.555682897567749</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.5088735222816467</v>
       </c>
       <c r="W27" t="n">
-        <v>0.001729785581119359</v>
+        <v>0.002191117499023676</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5507102012634277</v>
       </c>
       <c r="V28" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.4941283762454987</v>
       </c>
       <c r="W28" t="n">
-        <v>0.03060372918844223</v>
+        <v>0.003201502840965986</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.543881893157959</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.8906023502349854</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0008615999249741435</v>
+        <v>0.1202150732278824</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5265669822692871</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.8695451021194458</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01646926067769527</v>
+        <v>0.1176339909434319</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5199630260467529</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.5135972499847412</v>
       </c>
       <c r="W31" t="n">
-        <v>1.9873854398611e-05</v>
+        <v>4.052310396218672e-05</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5835750102996826</v>
       </c>
       <c r="V32" t="n">
-        <v>0.350454181432724</v>
+        <v>0.8603578209877014</v>
       </c>
       <c r="W32" t="n">
-        <v>0.05434532091021538</v>
+        <v>0.07660872489213943</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5159618854522705</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4937572479248047</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01262862794101238</v>
+        <v>0.0004930459544993937</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5212440490722656</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.8753203153610229</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0174607690423727</v>
+        <v>0.1253699958324432</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5210208892822266</v>
       </c>
       <c r="V35" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.4236688613891602</v>
       </c>
       <c r="W35" t="n">
-        <v>0.06873621046543121</v>
+        <v>0.009477416984736919</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5151221752166748</v>
       </c>
       <c r="V36" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.403876781463623</v>
       </c>
       <c r="W36" t="n">
-        <v>0.08601547032594681</v>
+        <v>0.01237553730607033</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5562248229980469</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.4245309829711914</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0003682863607537001</v>
+        <v>0.01734326779842377</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5145518779754639</v>
       </c>
       <c r="V38" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.3974704742431641</v>
       </c>
       <c r="W38" t="n">
-        <v>0.07197897136211395</v>
+        <v>0.01370805501937866</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.515545129776001</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.8608183860778809</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01253421232104301</v>
+        <v>0.1192136183381081</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5203421115875244</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.4946223497390747</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0002921686973422766</v>
+        <v>0.0006615061429329216</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5369269847869873</v>
       </c>
       <c r="V41" t="n">
-        <v>0.672019362449646</v>
+        <v>0.3974912762641907</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01824995130300522</v>
+        <v>0.01944231614470482</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4078710079193115</v>
       </c>
       <c r="V42" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.8931833505630493</v>
       </c>
       <c r="W42" t="n">
-        <v>0.140683650970459</v>
+        <v>0.2355280667543411</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4338419437408447</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.4222102165222168</v>
       </c>
       <c r="W43" t="n">
-        <v>0.001935611828230321</v>
+        <v>0.0001352970721200109</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3882369995117188</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.8689802289009094</v>
       </c>
       <c r="W44" t="n">
-        <v>0.02142550051212311</v>
+        <v>0.2311140596866608</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3885829448699951</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.4033898711204529</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01333771087229252</v>
+        <v>0.0002192450629081577</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.384213924407959</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.5172435641288757</v>
       </c>
       <c r="W46" t="n">
-        <v>0.06679777801036835</v>
+        <v>0.01769688539206982</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4122128486633301</v>
       </c>
       <c r="V47" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.517127513885498</v>
       </c>
       <c r="W47" t="n">
-        <v>0.28511643409729</v>
+        <v>0.01100708730518818</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4014410972595215</v>
       </c>
       <c r="V48" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.4040732979774475</v>
       </c>
       <c r="W48" t="n">
-        <v>0.002566168317571282</v>
+        <v>6.92848061589757e-06</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4392139911651611</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.879429042339325</v>
       </c>
       <c r="W49" t="n">
-        <v>0.005641720723360777</v>
+        <v>0.1937892884016037</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3875768184661865</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.8704617023468018</v>
       </c>
       <c r="W50" t="n">
-        <v>4.176177981207729e-07</v>
+        <v>0.2331778109073639</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.38661789894104</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.4929004907608032</v>
       </c>
       <c r="W51" t="n">
-        <v>0.03590341657400131</v>
+        <v>0.01129598915576935</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3894579410552979</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.5469987988471985</v>
       </c>
       <c r="W52" t="n">
-        <v>0.02190287224948406</v>
+        <v>0.02481912262737751</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3949971199035645</v>
       </c>
       <c r="V53" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.8492787480354309</v>
       </c>
       <c r="W53" t="n">
-        <v>0.1505022048950195</v>
+        <v>0.2063717991113663</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3877639770507812</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.8761674761772156</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0159119013696909</v>
+        <v>0.2385379821062088</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3896808624267578</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.4110407829284668</v>
       </c>
       <c r="W55" t="n">
-        <v>0.02922514453530312</v>
+        <v>0.0004562461981549859</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3895370960235596</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.4914725422859192</v>
       </c>
       <c r="W56" t="n">
-        <v>0.06931091845035553</v>
+        <v>0.01039083488285542</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3878960609436035</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.3974349796772003</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0002481025876477361</v>
+        <v>9.099097223952413e-05</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3894259929656982</v>
       </c>
       <c r="V58" t="n">
-        <v>0.375304102897644</v>
+        <v>0.4963272213935852</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0001994277845369652</v>
+        <v>0.01142787281423807</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3889451026916504</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.5172518491744995</v>
       </c>
       <c r="W59" t="n">
-        <v>0.0001631877821637318</v>
+        <v>0.01646262034773827</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3879158496856689</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.8716027140617371</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0004256547836121172</v>
+        <v>0.233952984213829</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3881330490112305</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.3975831568241119</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01383516378700733</v>
+        <v>8.930453623179346e-05</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8963310718536377</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.5158587694168091</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1330244988203049</v>
+        <v>0.1447591781616211</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8628640174865723</v>
       </c>
       <c r="V63" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.8711291551589966</v>
       </c>
       <c r="W63" t="n">
-        <v>0.2374216020107269</v>
+        <v>6.831250357208773e-05</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8619980812072754</v>
       </c>
       <c r="V64" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.8809544444084167</v>
       </c>
       <c r="W64" t="n">
-        <v>0.00737781822681427</v>
+        <v>0.0003593437140807509</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8643479347229004</v>
       </c>
       <c r="V65" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.8744615912437439</v>
       </c>
       <c r="W65" t="n">
-        <v>0.02754773199558258</v>
+        <v>0.000102286045148503</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8725078105926514</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.4134070575237274</v>
       </c>
       <c r="W66" t="n">
-        <v>0.04654162377119064</v>
+        <v>0.2107734978199005</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8651320934295654</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.4039435982704163</v>
       </c>
       <c r="W67" t="n">
-        <v>0.173599898815155</v>
+        <v>0.2126948237419128</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9064290523529053</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.4029507339000702</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1616992503404617</v>
+        <v>0.2534903883934021</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8659729957580566</v>
       </c>
       <c r="V69" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.4944908916950226</v>
       </c>
       <c r="W69" t="n">
-        <v>0.005852860864251852</v>
+        <v>0.137998953461647</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8771021366119385</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.5138450860977173</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1317343264818192</v>
+        <v>0.1319556832313538</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8640658855438232</v>
       </c>
       <c r="V71" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.495995968580246</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2634662985801697</v>
+        <v>0.1354754567146301</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8710370063781738</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.4922685623168945</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1276029348373413</v>
+        <v>0.1434655338525772</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.9247910976409912</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.4114570915699005</v>
       </c>
       <c r="W73" t="n">
-        <v>0.3300457000732422</v>
+        <v>0.2635118365287781</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.865077018737793</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.5087660551071167</v>
       </c>
       <c r="W74" t="n">
-        <v>0.02806851826608181</v>
+        <v>0.126957505941391</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8781068325042725</v>
       </c>
       <c r="V75" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.5135895013809204</v>
       </c>
       <c r="W75" t="n">
-        <v>0.03789105638861656</v>
+        <v>0.1328728795051575</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8638088703155518</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.8829131126403809</v>
       </c>
       <c r="W76" t="n">
-        <v>0.04961546882987022</v>
+        <v>0.0003649720747489482</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9310469627380371</v>
       </c>
       <c r="V77" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.3975971341133118</v>
       </c>
       <c r="W77" t="n">
-        <v>0.3139899075031281</v>
+        <v>0.284568727016449</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8662998676300049</v>
       </c>
       <c r="V78" t="n">
-        <v>0.466268926858902</v>
+        <v>0.4039457738399506</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1600247472524643</v>
+        <v>0.2137713134288788</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.865947961807251</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4102693498134613</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1725415587425232</v>
+        <v>0.2076430022716522</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8550329208374023</v>
       </c>
       <c r="V80" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.4919672608375549</v>
       </c>
       <c r="W80" t="n">
-        <v>0.005075504072010517</v>
+        <v>0.1318166702985764</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9359469413757324</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.3992505669593811</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1590086966753006</v>
+        <v>0.2880429923534393</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5459790229797363</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.8771873116493225</v>
       </c>
       <c r="W82" t="n">
-        <v>0.001812143600545824</v>
+        <v>0.1096989288926125</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5203888416290283</v>
       </c>
       <c r="V83" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.8767436146736145</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0289059542119503</v>
+        <v>0.1269887238740921</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5505440235137939</v>
       </c>
       <c r="V84" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.4988977909088135</v>
       </c>
       <c r="W84" t="n">
-        <v>0.03990673273801804</v>
+        <v>0.002667333232238889</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5167930126190186</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.5071032643318176</v>
       </c>
       <c r="W85" t="n">
-        <v>0.01280819717794657</v>
+        <v>9.389121987624094e-05</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5139851570129395</v>
       </c>
       <c r="V86" t="n">
-        <v>0.381181538105011</v>
+        <v>0.5080418586730957</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01763680204749107</v>
+        <v>3.532279515638947e-05</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5152361392974854</v>
       </c>
       <c r="V87" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.8683449625968933</v>
       </c>
       <c r="W87" t="n">
-        <v>0.03070882149040699</v>
+        <v>0.1246858388185501</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5140688419342041</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.507990837097168</v>
       </c>
       <c r="W88" t="n">
-        <v>0.01661328785121441</v>
+        <v>3.694214319693856e-05</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5173609256744385</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.8595829606056213</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02774656005203724</v>
+        <v>0.1171159222722054</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5480928421020508</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.4965745508670807</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01537628378719091</v>
+        <v>0.002654134295880795</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5191030502319336</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.4980438351631165</v>
       </c>
       <c r="W91" t="n">
-        <v>0.006582797039300203</v>
+        <v>0.0004434905422385782</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5701980590820312</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.863722562789917</v>
       </c>
       <c r="W92" t="n">
-        <v>0.02772769890725613</v>
+        <v>0.08615663647651672</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5171358585357666</v>
       </c>
       <c r="V93" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.4991106986999512</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0162634402513504</v>
+        <v>0.0003249063738621771</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5141270160675049</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.4235092103481293</v>
       </c>
       <c r="W94" t="n">
-        <v>0.0197626855224371</v>
+        <v>0.008211586624383926</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.516279935836792</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.8819119930267334</v>
       </c>
       <c r="W95" t="n">
-        <v>0.003673824481666088</v>
+        <v>0.1336867958307266</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5161271095275879</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.8932754397392273</v>
       </c>
       <c r="W96" t="n">
-        <v>0.004300073254853487</v>
+        <v>0.1422408670186996</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5615959167480469</v>
       </c>
       <c r="V97" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.4992807507514954</v>
       </c>
       <c r="W97" t="n">
-        <v>0.05857605114579201</v>
+        <v>0.003883179975673556</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5209190845489502</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.5407834053039551</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0003641776856966317</v>
+        <v>0.0003945912467315793</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5193579196929932</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.5266366600990295</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01339819002896547</v>
+        <v>5.298006362863816e-05</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5175590515136719</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.4968566298484802</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0002861583488993347</v>
+        <v>0.0004285902541596442</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5158560276031494</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.4041078984737396</v>
       </c>
       <c r="W101" t="n">
-        <v>1.746803377500328e-07</v>
+        <v>0.01248764432966709</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3982889652252197</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.3974533677101135</v>
       </c>
       <c r="W102" t="n">
-        <v>0.03627840429544449</v>
+        <v>6.982232321206538e-07</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4413759708404541</v>
       </c>
       <c r="V103" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.401870459318161</v>
       </c>
       <c r="W103" t="n">
-        <v>0.004355105105787516</v>
+        <v>0.001560685457661748</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3934009075164795</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.4010839462280273</v>
       </c>
       <c r="W104" t="n">
-        <v>0.0001051407598424703</v>
+        <v>5.902908378629945e-05</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4091591835021973</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.4224083125591278</v>
       </c>
       <c r="W105" t="n">
-        <v>0.008979040198028088</v>
+        <v>0.0001755394187057391</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3874640464782715</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.4114606380462646</v>
       </c>
       <c r="W106" t="n">
-        <v>0.06471779197454453</v>
+        <v>0.0005758363986387849</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3893029689788818</v>
       </c>
       <c r="V107" t="n">
-        <v>0.656647801399231</v>
+        <v>0.8583174347877502</v>
       </c>
       <c r="W107" t="n">
-        <v>0.07147325575351715</v>
+        <v>0.2199745625257492</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3887360095977783</v>
       </c>
       <c r="V108" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.4906018674373627</v>
       </c>
       <c r="W108" t="n">
-        <v>0.1558268070220947</v>
+        <v>0.01037665270268917</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.4438889026641846</v>
       </c>
       <c r="V109" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.500793993473053</v>
       </c>
       <c r="W109" t="n">
-        <v>0.2502858340740204</v>
+        <v>0.003238189266994596</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3971397876739502</v>
       </c>
       <c r="V110" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.4982822239398956</v>
       </c>
       <c r="W110" t="n">
-        <v>0.002002421533688903</v>
+        <v>0.01022979244589806</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3899040222167969</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.8638290166854858</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01959699206054211</v>
+        <v>0.2246049046516418</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3966200351715088</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.4972995817661285</v>
       </c>
       <c r="W112" t="n">
-        <v>0.08171877264976501</v>
+        <v>0.01013637147843838</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3995339870452881</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.3974331617355347</v>
       </c>
       <c r="W113" t="n">
-        <v>0.006099004298448563</v>
+        <v>4.413467195263365e-06</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3975660800933838</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.8673785328865051</v>
       </c>
       <c r="W114" t="n">
-        <v>0.02031764574348927</v>
+        <v>0.2207237482070923</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4135298728942871</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.4985906183719635</v>
       </c>
       <c r="W115" t="n">
-        <v>0.001481333049014211</v>
+        <v>0.007235330529510975</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.400393009185791</v>
       </c>
       <c r="V116" t="n">
-        <v>0.350296825170517</v>
+        <v>0.4038542509078979</v>
       </c>
       <c r="W116" t="n">
-        <v>0.002509627724066377</v>
+        <v>1.198019435832975e-05</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3930392265319824</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.4028785228729248</v>
       </c>
       <c r="W117" t="n">
-        <v>0.06164173781871796</v>
+        <v>9.68117528827861e-05</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4020788669586182</v>
       </c>
       <c r="V118" t="n">
-        <v>0.654166579246521</v>
+        <v>0.4838323891162872</v>
       </c>
       <c r="W118" t="n">
-        <v>0.06354821473360062</v>
+        <v>0.006683638319373131</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3890740871429443</v>
       </c>
       <c r="V119" t="n">
-        <v>0.54131019115448</v>
+        <v>0.4915263652801514</v>
       </c>
       <c r="W119" t="n">
-        <v>0.02317583188414574</v>
+        <v>0.0104964692145586</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4093010425567627</v>
       </c>
       <c r="V120" t="n">
-        <v>0.541418194770813</v>
+        <v>0.4993183612823486</v>
       </c>
       <c r="W120" t="n">
-        <v>0.01745494268834591</v>
+        <v>0.008103117346763611</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3888108730316162</v>
       </c>
       <c r="V121" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.5136909484863281</v>
       </c>
       <c r="W121" t="n">
-        <v>0.3123204410076141</v>
+        <v>0.0155950328335166</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8898811340332031</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.418870210647583</v>
       </c>
       <c r="W122" t="n">
-        <v>0.06153754144906998</v>
+        <v>0.2218512892723083</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.930156946182251</v>
       </c>
       <c r="V123" t="n">
-        <v>0.514474630355835</v>
+        <v>0.4901247918605804</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1727917939424515</v>
+        <v>0.1936282962560654</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8893911838531494</v>
       </c>
       <c r="V124" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.8601586818695068</v>
       </c>
       <c r="W124" t="n">
-        <v>0.01151552516967058</v>
+        <v>0.0008545391610823572</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9170880317687988</v>
       </c>
       <c r="V125" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.8804168701171875</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2985431253910065</v>
+        <v>0.001344774151220918</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8810000419616699</v>
       </c>
       <c r="V126" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.3976065218448639</v>
       </c>
       <c r="W126" t="n">
-        <v>0.004247321747243404</v>
+        <v>0.2336692959070206</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.872974157333374</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.8707340359687805</v>
       </c>
       <c r="W127" t="n">
-        <v>0.09746531397104263</v>
+        <v>5.018143838242395e-06</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8642890453338623</v>
       </c>
       <c r="V128" t="n">
-        <v>0.782903790473938</v>
+        <v>0.4116365611553192</v>
       </c>
       <c r="W128" t="n">
-        <v>0.006623559631407261</v>
+        <v>0.2048942744731903</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9240682125091553</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.8614509701728821</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1495363563299179</v>
+        <v>0.003920919261872768</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8903520107269287</v>
       </c>
       <c r="V130" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.4946047067642212</v>
       </c>
       <c r="W130" t="n">
-        <v>0.2596105635166168</v>
+        <v>0.1566159278154373</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8618810176849365</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.8624773621559143</v>
       </c>
       <c r="W131" t="n">
-        <v>0.09053462743759155</v>
+        <v>3.556267245130584e-07</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8741660118103027</v>
       </c>
       <c r="V132" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.8610777258872986</v>
       </c>
       <c r="W132" t="n">
-        <v>0.005198708269745111</v>
+        <v>0.0001713032252155244</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9340801239013672</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.8640693426132202</v>
       </c>
       <c r="W133" t="n">
-        <v>0.3119654655456543</v>
+        <v>0.004901509266346693</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8645470142364502</v>
       </c>
       <c r="V134" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.3975656628608704</v>
       </c>
       <c r="W134" t="n">
-        <v>0.006535451393574476</v>
+        <v>0.2180715799331665</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8696110248565674</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.4287681579589844</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1337579488754272</v>
+        <v>0.1943424344062805</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.863724946975708</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.5264288783073425</v>
       </c>
       <c r="W136" t="n">
-        <v>0.04893260076642036</v>
+        <v>0.1137686371803284</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9185371398925781</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.8664133548736572</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2651726901531219</v>
+        <v>0.002716888906434178</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8683569431304932</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.4909970164299011</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1159050166606903</v>
+        <v>0.1424005180597305</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8689360618591309</v>
       </c>
       <c r="V139" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.3992500603199005</v>
       </c>
       <c r="W139" t="n">
-        <v>0.00740622915327549</v>
+        <v>0.2206049412488937</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8626401424407959</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.3991131782531738</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1697231531143188</v>
+        <v>0.2148572504520416</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.9528257846832275</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.8873708844184875</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1692905426025391</v>
+        <v>0.004284344147890806</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5565669536590576</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.8693155646324158</v>
       </c>
       <c r="W142" t="n">
-        <v>0.0002306674577994272</v>
+        <v>0.09781169146299362</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5212299823760986</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.3991022706031799</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01381951291114092</v>
+        <v>0.01491517759859562</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5194931030273438</v>
       </c>
       <c r="V144" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.4941249489784241</v>
       </c>
       <c r="W144" t="n">
-        <v>0.02846219763159752</v>
+        <v>0.0006435432587750256</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5185449123382568</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.422049880027771</v>
       </c>
       <c r="W145" t="n">
-        <v>8.81183150340803e-05</v>
+        <v>0.009311291389167309</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5757219791412354</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.8908237814903259</v>
       </c>
       <c r="W146" t="n">
-        <v>0.006499361712485552</v>
+        <v>0.09928914904594421</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5377781391143799</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.4039897620677948</v>
       </c>
       <c r="W147" t="n">
-        <v>0.01803357526659966</v>
+        <v>0.01789933070540428</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5481269359588623</v>
       </c>
       <c r="V148" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.3991472125053406</v>
       </c>
       <c r="W148" t="n">
-        <v>0.03894598409533501</v>
+        <v>0.02219495736062527</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5177240371704102</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.5003448128700256</v>
       </c>
       <c r="W149" t="n">
-        <v>0.01307662203907967</v>
+        <v>0.000302037427900359</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5192160606384277</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.4947870969772339</v>
       </c>
       <c r="W150" t="n">
-        <v>0.02836926653981209</v>
+        <v>0.0005967742763459682</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5181510448455811</v>
       </c>
       <c r="V151" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.4120819568634033</v>
       </c>
       <c r="W151" t="n">
-        <v>0.02746383473277092</v>
+        <v>0.01125065144151449</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5178511142730713</v>
       </c>
       <c r="V152" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.8811159133911133</v>
       </c>
       <c r="W152" t="n">
-        <v>0.1815713793039322</v>
+        <v>0.131961315870285</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5174961090087891</v>
       </c>
       <c r="V153" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.8671760559082031</v>
       </c>
       <c r="W153" t="n">
-        <v>0.07063905894756317</v>
+        <v>0.1222760677337646</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5161020755767822</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.8629185557365417</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0006377169047482312</v>
+        <v>0.1202816739678383</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5209999084472656</v>
       </c>
       <c r="V155" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.859167754650116</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01834392733871937</v>
+        <v>0.1143574938178062</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5183041095733643</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.4963842928409576</v>
       </c>
       <c r="W156" t="n">
-        <v>2.108811895595863e-05</v>
+        <v>0.0004804783675353974</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5722038745880127</v>
       </c>
       <c r="V157" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.8751220107078552</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0405891127884388</v>
+        <v>0.09175939857959747</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5207531452178955</v>
       </c>
       <c r="V158" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.8640888929367065</v>
       </c>
       <c r="W158" t="n">
-        <v>0.08359221369028091</v>
+        <v>0.1178794354200363</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5183389186859131</v>
       </c>
       <c r="V159" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.4913111329078674</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01863576471805573</v>
+        <v>0.0007305011968128383</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5177900791168213</v>
       </c>
       <c r="V160" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.8745837807655334</v>
       </c>
       <c r="W160" t="n">
-        <v>0.02788985520601273</v>
+        <v>0.1273017525672913</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5204329490661621</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.5137602090835571</v>
       </c>
       <c r="W161" t="n">
-        <v>0.0137053057551384</v>
+        <v>4.452545908861794e-05</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3949730396270752</v>
       </c>
       <c r="V162" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.402283787727356</v>
       </c>
       <c r="W162" t="n">
-        <v>0.1509601175785065</v>
+        <v>5.344703822629526e-05</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3918559551239014</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.4054751992225647</v>
       </c>
       <c r="W163" t="n">
-        <v>0.007348490878939629</v>
+        <v>0.0001854838046710938</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3929159641265869</v>
       </c>
       <c r="V164" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.5163352489471436</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0001402791385771707</v>
+        <v>0.01523231994360685</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3946950435638428</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8610871434211731</v>
       </c>
       <c r="W165" t="n">
-        <v>0.06119557470083237</v>
+        <v>0.2175215929746628</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3915760517120361</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.3991092443466187</v>
       </c>
       <c r="W166" t="n">
-        <v>0.003229366615414619</v>
+        <v>5.674899148289114e-05</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3924260139465332</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.4234992861747742</v>
       </c>
       <c r="W167" t="n">
-        <v>0.06884726881980896</v>
+        <v>0.000965548271778971</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3906009197235107</v>
       </c>
       <c r="V168" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.5028398633003235</v>
       </c>
       <c r="W168" t="n">
-        <v>0.001585441408678889</v>
+        <v>0.01259758044034243</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4150099754333496</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.3975867629051208</v>
       </c>
       <c r="W169" t="n">
-        <v>0.007531939540058374</v>
+        <v>0.0003035683475900441</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3944389820098877</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.4029115438461304</v>
       </c>
       <c r="W170" t="n">
-        <v>0.07145822048187256</v>
+        <v>7.178430678322911e-05</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3917441368103027</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.5279995799064636</v>
       </c>
       <c r="W171" t="n">
-        <v>0.08455755561590195</v>
+        <v>0.01856554485857487</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3982717990875244</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.3974877595901489</v>
       </c>
       <c r="W172" t="n">
-        <v>0.004616810940206051</v>
+        <v>6.147179192339536e-07</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3944239616394043</v>
       </c>
       <c r="V173" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.8725033402442932</v>
       </c>
       <c r="W173" t="n">
-        <v>0.3063030540943146</v>
+        <v>0.2285598963499069</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3925468921661377</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.3974754512310028</v>
       </c>
       <c r="W174" t="n">
-        <v>0.01472282595932484</v>
+        <v>2.429069536447059e-05</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4468681812286377</v>
       </c>
       <c r="V175" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.4114740192890167</v>
       </c>
       <c r="W175" t="n">
-        <v>0.2494052648544312</v>
+        <v>0.001252746675163507</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3943519592285156</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.4039389193058014</v>
       </c>
       <c r="W176" t="n">
-        <v>0.01182171143591404</v>
+        <v>9.190980199491605e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4007530212402344</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.8667135834693909</v>
       </c>
       <c r="W177" t="n">
-        <v>0.009702299721539021</v>
+        <v>0.2171192467212677</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3922600746154785</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.8609266877174377</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0001291421503992751</v>
+        <v>0.2196483910083771</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3929181098937988</v>
       </c>
       <c r="V179" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.4962278008460999</v>
       </c>
       <c r="W179" t="n">
-        <v>0.1717697381973267</v>
+        <v>0.01067289244383574</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3919548988342285</v>
       </c>
       <c r="V180" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.8742673993110657</v>
       </c>
       <c r="W180" t="n">
-        <v>0.1666598618030548</v>
+        <v>0.232625350356102</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.5371260643005371</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.3974614143371582</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0004758604918606579</v>
+        <v>0.01950621418654919</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8831219673156738</v>
       </c>
       <c r="V182" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.4900060594081879</v>
       </c>
       <c r="W182" t="n">
-        <v>0.005659624934196472</v>
+        <v>0.1545401215553284</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9107179641723633</v>
       </c>
       <c r="V183" t="n">
-        <v>0.654965877532959</v>
+        <v>0.5166569948196411</v>
       </c>
       <c r="W183" t="n">
-        <v>0.06540913134813309</v>
+        <v>0.15528404712677</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8851139545440674</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.5135431289672852</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1277446895837784</v>
+        <v>0.1380648761987686</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9381999969482422</v>
       </c>
       <c r="V185" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.8823980689048767</v>
       </c>
       <c r="W185" t="n">
-        <v>0.3102870285511017</v>
+        <v>0.003113855142146349</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8697528839111328</v>
       </c>
       <c r="V186" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.5137348175048828</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1335063725709915</v>
+        <v>0.1267488598823547</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8741109371185303</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.4862528443336487</v>
       </c>
       <c r="W187" t="n">
-        <v>0.08959687501192093</v>
+        <v>0.1504338979721069</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8674931526184082</v>
       </c>
       <c r="V188" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.5137627124786377</v>
       </c>
       <c r="W188" t="n">
-        <v>0.004545280244201422</v>
+        <v>0.1251252293586731</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9247879981994629</v>
       </c>
       <c r="V189" t="n">
-        <v>0.350784033536911</v>
+        <v>0.8671377301216125</v>
       </c>
       <c r="W189" t="n">
-        <v>0.3294805288314819</v>
+        <v>0.003323553362861276</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9001109600067139</v>
       </c>
       <c r="V190" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.8599897027015686</v>
       </c>
       <c r="W190" t="n">
-        <v>0.04078267514705658</v>
+        <v>0.001609715283848345</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8835029602050781</v>
       </c>
       <c r="V191" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.8679854273796082</v>
       </c>
       <c r="W191" t="n">
-        <v>0.2581906020641327</v>
+        <v>0.0002407938300166279</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8653068542480469</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.8995836973190308</v>
       </c>
       <c r="W192" t="n">
-        <v>0.107547216117382</v>
+        <v>0.001174901961348951</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9404909610748291</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.4037244617938995</v>
       </c>
       <c r="W193" t="n">
-        <v>0.08202261477708817</v>
+        <v>0.288118302822113</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8699789047241211</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.5067062377929688</v>
       </c>
       <c r="W194" t="n">
-        <v>0.2177083641290665</v>
+        <v>0.1319670379161835</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8793909549713135</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.4228514432907104</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1707046329975128</v>
+        <v>0.2084283232688904</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8919639587402344</v>
       </c>
       <c r="V196" t="n">
-        <v>0.672245979309082</v>
+        <v>0.3974652886390686</v>
       </c>
       <c r="W196" t="n">
-        <v>0.04827599227428436</v>
+        <v>0.2445289343595505</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9183640480041504</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.3993851542472839</v>
       </c>
       <c r="W197" t="n">
-        <v>0.204368069767952</v>
+        <v>0.2693390846252441</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8713431358337402</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.8632128834724426</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1353496760129929</v>
+        <v>6.610100535908714e-05</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8719580173492432</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.8591248393058777</v>
       </c>
       <c r="W199" t="n">
-        <v>0.271636575460434</v>
+        <v>0.0001646904565859586</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8627541065216064</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.4971954524517059</v>
       </c>
       <c r="W200" t="n">
-        <v>0.04810928925871849</v>
+        <v>0.1336331367492676</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9472179412841797</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.8923676609992981</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1149163842201233</v>
+        <v>0.003008553292602301</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5189359188079834</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.880021333694458</v>
       </c>
       <c r="W202" t="n">
-        <v>2.453601700835861e-05</v>
+        <v>0.1303826719522476</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5181171894073486</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.4040590524673462</v>
       </c>
       <c r="W203" t="n">
-        <v>0.0001939691574079916</v>
+        <v>0.01300925854593515</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5348649024963379</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.3977535665035248</v>
       </c>
       <c r="W204" t="n">
-        <v>0.02182133309543133</v>
+        <v>0.01879951916635036</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5208451747894287</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.4039914309978485</v>
       </c>
       <c r="W205" t="n">
-        <v>0.02616320364177227</v>
+        <v>0.01365479733794928</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5730059146881104</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.3974818289279938</v>
       </c>
       <c r="W206" t="n">
-        <v>0.00166456017177552</v>
+        <v>0.03080870397388935</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5210928916931152</v>
       </c>
       <c r="V207" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.3974631726741791</v>
       </c>
       <c r="W207" t="n">
-        <v>0.03098351135849953</v>
+        <v>0.01528430730104446</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5159530639648438</v>
       </c>
       <c r="V208" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.494864284992218</v>
       </c>
       <c r="W208" t="n">
-        <v>0.1897718012332916</v>
+        <v>0.0004447365936357528</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5145530700683594</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.4099656343460083</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0001954346080310643</v>
+        <v>0.01093853171914816</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5194931030273438</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.5137437582015991</v>
       </c>
       <c r="W210" t="n">
-        <v>0.02333872206509113</v>
+        <v>3.305496647953987e-05</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5819170475006104</v>
       </c>
       <c r="V211" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.8783659338951111</v>
       </c>
       <c r="W211" t="n">
-        <v>0.004991975612938404</v>
+        <v>0.08788194507360458</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5236279964447021</v>
       </c>
       <c r="V212" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.492392897605896</v>
       </c>
       <c r="W212" t="n">
-        <v>0.02032815665006638</v>
+        <v>0.0009756314102560282</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5228419303894043</v>
       </c>
       <c r="V213" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.8730717301368713</v>
       </c>
       <c r="W213" t="n">
-        <v>0.0002113479567924514</v>
+        <v>0.1226609125733376</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5223019123077393</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.8667941689491272</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01808968000113964</v>
+        <v>0.1186749115586281</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5232009887695312</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.8589673638343811</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01429098192602396</v>
+        <v>0.1127390563488007</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5397770404815674</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.4878553748130798</v>
       </c>
       <c r="W216" t="n">
-        <v>0.007940950803458691</v>
+        <v>0.002695859409868717</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5219919681549072</v>
       </c>
       <c r="V217" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.4975064396858215</v>
       </c>
       <c r="W217" t="n">
-        <v>0.06860169768333435</v>
+        <v>0.000599541119299829</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.520226001739502</v>
       </c>
       <c r="V218" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.49131178855896</v>
       </c>
       <c r="W218" t="n">
-        <v>0.08332888782024384</v>
+        <v>0.0008360317442566156</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.524238109588623</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.397472083568573</v>
       </c>
       <c r="W219" t="n">
-        <v>0.01455400511622429</v>
+        <v>0.01606962457299232</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5232629776000977</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.8745483756065369</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01785115711390972</v>
+        <v>0.1234014332294464</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.522845983505249</v>
       </c>
       <c r="V221" t="n">
-        <v>0.504324197769165</v>
+        <v>0.8848697543144226</v>
       </c>
       <c r="W221" t="n">
-        <v>0.0003430565411690623</v>
+        <v>0.1310612112283707</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4495029449462891</v>
       </c>
       <c r="V222" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.5007970333099365</v>
       </c>
       <c r="W222" t="n">
-        <v>0.009746064431965351</v>
+        <v>0.002631083596497774</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.391995906829834</v>
       </c>
       <c r="V223" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.5165715217590332</v>
       </c>
       <c r="W223" t="n">
-        <v>0.07334031909704208</v>
+        <v>0.01551908347755671</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3926150798797607</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.4235730767250061</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01244847662746906</v>
+        <v>0.0009583975770510733</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3920629024505615</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.4976283311843872</v>
       </c>
       <c r="W225" t="n">
-        <v>0.000127556617371738</v>
+        <v>0.0111440597102046</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3935379981994629</v>
       </c>
       <c r="V226" t="n">
-        <v>0.534324586391449</v>
+        <v>0.397443413734436</v>
       </c>
       <c r="W226" t="n">
-        <v>0.01982086338102818</v>
+        <v>1.525227071397239e-05</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3970820903778076</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.3974910378456116</v>
       </c>
       <c r="W227" t="n">
-        <v>0.0605829656124115</v>
+        <v>1.672380278705532e-07</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4223220348358154</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.8863683342933655</v>
       </c>
       <c r="W228" t="n">
-        <v>0.0003623566299211234</v>
+        <v>0.2153389751911163</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3967490196228027</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.4958380460739136</v>
       </c>
       <c r="W229" t="n">
-        <v>0.02085604332387447</v>
+        <v>0.009818634949624538</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.393441915512085</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.50772625207901</v>
       </c>
       <c r="W230" t="n">
-        <v>0.01448113936930895</v>
+        <v>0.01306090969592333</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3924939632415771</v>
       </c>
       <c r="V231" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.4995489120483398</v>
       </c>
       <c r="W231" t="n">
-        <v>0.1744030267000198</v>
+        <v>0.01146076247096062</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4037880897521973</v>
       </c>
       <c r="V232" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.3974898159503937</v>
       </c>
       <c r="W232" t="n">
-        <v>0.2901254892349243</v>
+        <v>3.966825170209631e-05</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3945779800415039</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.874360978603363</v>
       </c>
       <c r="W233" t="n">
-        <v>0.006968009751290083</v>
+        <v>0.2301917225122452</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3974549770355225</v>
       </c>
       <c r="V234" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8692731261253357</v>
       </c>
       <c r="W234" t="n">
-        <v>0.06713291257619858</v>
+        <v>0.2226123660802841</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3953168392181396</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.4985054433345795</v>
       </c>
       <c r="W235" t="n">
-        <v>0.01402699667960405</v>
+        <v>0.01064788829535246</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3963639736175537</v>
       </c>
       <c r="V236" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.8718592524528503</v>
       </c>
       <c r="W236" t="n">
-        <v>0.03702293708920479</v>
+        <v>0.2260957658290863</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3934199810028076</v>
       </c>
       <c r="V237" t="n">
-        <v>0.944080114364624</v>
+        <v>0.540668249130249</v>
       </c>
       <c r="W237" t="n">
-        <v>0.3032265901565552</v>
+        <v>0.02168205194175243</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3889632225036621</v>
       </c>
       <c r="V238" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.4023382663726807</v>
       </c>
       <c r="W238" t="n">
-        <v>2.291256578246248e-06</v>
+        <v>0.0001788918016245589</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3925678730010986</v>
       </c>
       <c r="V239" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.4098704755306244</v>
       </c>
       <c r="W239" t="n">
-        <v>0.0001556021743454039</v>
+        <v>0.0002993800444528461</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3856990337371826</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.4976848661899567</v>
       </c>
       <c r="W240" t="n">
-        <v>0.0220686886459589</v>
+        <v>0.01254082657396793</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4038019180297852</v>
       </c>
       <c r="V241" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.8612785935401917</v>
       </c>
       <c r="W241" t="n">
-        <v>0.01899596489965916</v>
+        <v>0.2092849016189575</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8976230621337891</v>
       </c>
       <c r="V242" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.4964548349380493</v>
       </c>
       <c r="W242" t="n">
-        <v>0.007665365003049374</v>
+        <v>0.1609359532594681</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>1.057010889053345</v>
       </c>
       <c r="V243" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.8980457186698914</v>
       </c>
       <c r="W243" t="n">
-        <v>0.06336935609579086</v>
+        <v>0.02526992559432983</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>1.028808116912842</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.4227018356323242</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2645805776119232</v>
+        <v>0.3673648238182068</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9378058910369873</v>
       </c>
       <c r="V245" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.8639459013938904</v>
       </c>
       <c r="W245" t="n">
-        <v>0.3449937701225281</v>
+        <v>0.005455297883599997</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8718359470367432</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.8611279129981995</v>
       </c>
       <c r="W246" t="n">
-        <v>0.08697617053985596</v>
+        <v>0.0001146619906648993</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8758888244628906</v>
       </c>
       <c r="V247" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.3992283344268799</v>
       </c>
       <c r="W247" t="n">
-        <v>0.00408468721434474</v>
+        <v>0.227205216884613</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.904900074005127</v>
       </c>
       <c r="V248" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.4028033316135406</v>
       </c>
       <c r="W248" t="n">
-        <v>0.009394320659339428</v>
+        <v>0.2521011829376221</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8863489627838135</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.5176562070846558</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2329615652561188</v>
+        <v>0.1359343528747559</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8721060752868652</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.8730462193489075</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1093724519014359</v>
+        <v>8.838708822622721e-07</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8925979137420654</v>
       </c>
       <c r="V251" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.3974137306213379</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1429550349712372</v>
+        <v>0.2452073693275452</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9335379600524902</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.4229679703712463</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1538430005311966</v>
+        <v>0.2606817185878754</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8832290172576904</v>
       </c>
       <c r="V253" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.540042519569397</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1640751957893372</v>
+        <v>0.1177769750356674</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8852918148040771</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4037406444549561</v>
       </c>
       <c r="W254" t="n">
-        <v>0.2320257872343063</v>
+        <v>0.2318915277719498</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8766140937805176</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.4980111122131348</v>
       </c>
       <c r="W255" t="n">
-        <v>0.0553482249379158</v>
+        <v>0.143340215086937</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9333188533782959</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.4110381901264191</v>
       </c>
       <c r="W256" t="n">
-        <v>0.2806063890457153</v>
+        <v>0.2727771103382111</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8862361907958984</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.8988173604011536</v>
       </c>
       <c r="W257" t="n">
-        <v>0.147710308432579</v>
+        <v>0.0001582858239999041</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8687598705291748</v>
       </c>
       <c r="V258" t="n">
-        <v>0.531548023223877</v>
+        <v>0.8911718726158142</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1137118265032768</v>
+        <v>0.0005022978293709457</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8739669322967529</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.8879374861717224</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1104631125926971</v>
+        <v>0.0001951763697434217</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9231131076812744</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.8607014417648315</v>
       </c>
       <c r="W260" t="n">
-        <v>0.2698386609554291</v>
+        <v>0.003895216155797243</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8724839687347412</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.8777409195899963</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1096257045865059</v>
+        <v>2.763553311524447e-05</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5275061130523682</v>
       </c>
       <c r="V262" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.8745976686477661</v>
       </c>
       <c r="W262" t="n">
-        <v>0.1797323524951935</v>
+        <v>0.1204725503921509</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.526745080947876</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.5137789249420166</v>
       </c>
       <c r="W263" t="n">
-        <v>3.259191362303682e-05</v>
+        <v>0.0001681212015682831</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5245459079742432</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.3974641263484955</v>
       </c>
       <c r="W264" t="n">
-        <v>9.91599663393572e-05</v>
+        <v>0.01614977978169918</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5761501789093018</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.4893656969070435</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01132788881659508</v>
+        <v>0.007531546521931887</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5269138813018799</v>
       </c>
       <c r="V266" t="n">
-        <v>0.946087121963501</v>
+        <v>0.3974786698818207</v>
       </c>
       <c r="W266" t="n">
-        <v>0.1757062077522278</v>
+        <v>0.01675347425043583</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.523237943649292</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.8632168173789978</v>
       </c>
       <c r="W267" t="n">
-        <v>0.001497089164331555</v>
+        <v>0.115585632622242</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5270938873291016</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.4101186990737915</v>
       </c>
       <c r="W268" t="n">
-        <v>0.02670082449913025</v>
+        <v>0.01368319429457188</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5244748592376709</v>
       </c>
       <c r="V269" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.3991521596908569</v>
       </c>
       <c r="W269" t="n">
-        <v>0.03016728162765503</v>
+        <v>0.01570577919483185</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5638120174407959</v>
       </c>
       <c r="V270" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.8772536516189575</v>
       </c>
       <c r="W270" t="n">
-        <v>0.06079870089888573</v>
+        <v>0.09824565798044205</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5228500366210938</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.3977180421352386</v>
       </c>
       <c r="W271" t="n">
-        <v>0.01419499237090349</v>
+        <v>0.01565801538527012</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5285820960998535</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.4011187553405762</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01562177389860153</v>
+        <v>0.01624690368771553</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5226919651031494</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.4979700744152069</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0003968393139075488</v>
+        <v>0.0006111718830652535</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5441920757293701</v>
       </c>
       <c r="V274" t="n">
-        <v>0.514431357383728</v>
+        <v>0.8727845549583435</v>
       </c>
       <c r="W274" t="n">
-        <v>0.0008857003413140774</v>
+        <v>0.1079730167984962</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5239048004150391</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.8635721802711487</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0001744394976412877</v>
+        <v>0.115373931825161</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5251021385192871</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.4896328747272491</v>
       </c>
       <c r="W276" t="n">
-        <v>0.0006364321452565491</v>
+        <v>0.001258068718016148</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5269849300384521</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.8748947381973267</v>
       </c>
       <c r="W277" t="n">
-        <v>0.0001685202296357602</v>
+        <v>0.1210412383079529</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5230939388275146</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.5080838203430176</v>
       </c>
       <c r="W278" t="n">
-        <v>8.91564559424296e-05</v>
+        <v>0.0002253036509500816</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5250399112701416</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.4226689636707306</v>
       </c>
       <c r="W279" t="n">
-        <v>0.002248537261039019</v>
+        <v>0.01047981064766645</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5223870277404785</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.4028677344322205</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0003824482555501163</v>
+        <v>0.01428486127406359</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5736370086669922</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.8727671504020691</v>
       </c>
       <c r="W281" t="n">
-        <v>0.0001454705925425515</v>
+        <v>0.08947884291410446</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4076831340789795</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.4125485420227051</v>
       </c>
       <c r="W282" t="n">
-        <v>0.06011224538087845</v>
+        <v>2.367219531151932e-05</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3997468948364258</v>
       </c>
       <c r="V283" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.8729126453399658</v>
       </c>
       <c r="W283" t="n">
-        <v>0.002398497192189097</v>
+        <v>0.2238858342170715</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.399083137512207</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.4033781588077545</v>
       </c>
       <c r="W284" t="n">
-        <v>1.887850521598011e-05</v>
+        <v>1.844720827648416e-05</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3986120223999023</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.4957781434059143</v>
       </c>
       <c r="W285" t="n">
-        <v>0.06572549045085907</v>
+        <v>0.009441254660487175</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.400886058807373</v>
       </c>
       <c r="V286" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.8976972699165344</v>
       </c>
       <c r="W286" t="n">
-        <v>0.0008857783977873623</v>
+        <v>0.2468213737010956</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.462446928024292</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.5155097246170044</v>
       </c>
       <c r="W287" t="n">
-        <v>0.001531677204184234</v>
+        <v>0.002815660322085023</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3990721702575684</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.5143238306045532</v>
       </c>
       <c r="W288" t="n">
-        <v>0.01120787858963013</v>
+        <v>0.01328294537961483</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.3987228870391846</v>
       </c>
       <c r="V289" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.8876531720161438</v>
       </c>
       <c r="W289" t="n">
-        <v>0.2957735359668732</v>
+        <v>0.2390528172254562</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3932399749755859</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.3974488377571106</v>
       </c>
       <c r="W290" t="n">
-        <v>0.06191587448120117</v>
+        <v>1.77145266206935e-05</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3989100456237793</v>
       </c>
       <c r="V291" t="n">
-        <v>0.514564037322998</v>
+        <v>0.8973742127418518</v>
       </c>
       <c r="W291" t="n">
-        <v>0.0133758457377553</v>
+        <v>0.2484665215015411</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4036099910736084</v>
       </c>
       <c r="V292" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.8780737519264221</v>
       </c>
       <c r="W292" t="n">
-        <v>0.1627577692270279</v>
+        <v>0.2251158654689789</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4224691390991211</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.4011503159999847</v>
       </c>
       <c r="W293" t="n">
-        <v>0.008345272392034531</v>
+        <v>0.0004544922267086804</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3974320888519287</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.4218572080135345</v>
       </c>
       <c r="W294" t="n">
-        <v>0.002601182321086526</v>
+        <v>0.0005965864402242005</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3953700065612793</v>
       </c>
       <c r="V295" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.4950923323631287</v>
       </c>
       <c r="W295" t="n">
-        <v>0.1769913583993912</v>
+        <v>0.009944542311131954</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3964071273803711</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.4235772490501404</v>
       </c>
       <c r="W296" t="n">
-        <v>0.04485539346933365</v>
+        <v>0.0007382155163213611</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4131231307983398</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.5488623976707458</v>
       </c>
       <c r="W297" t="n">
-        <v>0.00139948062133044</v>
+        <v>0.01842514798045158</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.39910888671875</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.4121666252613068</v>
       </c>
       <c r="W298" t="n">
-        <v>0.002178816823288798</v>
+        <v>0.0001705045287963003</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3992679119110107</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.8611006140708923</v>
       </c>
       <c r="W299" t="n">
-        <v>1.881355819932651e-05</v>
+        <v>0.2132894396781921</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3987858295440674</v>
       </c>
       <c r="V300" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.8910166621208191</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0003199393104296178</v>
+        <v>0.242291197180748</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3993129730224609</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.4993371665477753</v>
       </c>
       <c r="W301" t="n">
-        <v>0.02018195204436779</v>
+        <v>0.01000483892858028</v>
       </c>
     </row>
     <row r="302" spans="1:23">
